--- a/data/expt_2/raw_transcripts/game62.xlsx
+++ b/data/expt_2/raw_transcripts/game62.xlsx
@@ -1,64 +1,73 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="MVI_0078.MP4.csv" sheetId="1" r:id="rId4"/>
+    <sheet name="MVI_0078.MP4.csv" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="164">
-  <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>end</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>speaker</t>
-  </si>
-  <si>
-    <t>trial</t>
-  </si>
-  <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>echo</t>
-  </si>
-  <si>
-    <t>description</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="167">
+  <si>
+    <t xml:space="preserve">start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">speaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">description</t>
   </si>
   <si>
     <t xml:space="preserve"> All right, now you're on camera and you're on camera so that I can remember how you guys play the game, okay?</t>
   </si>
   <si>
-    <t>R</t>
+    <t xml:space="preserve">R</t>
   </si>
   <si>
     <t xml:space="preserve"> All right, now, and if at any point you guys want to leave my game room, just say that, okay?</t>
   </si>
   <si>
-    <t>All right.</t>
+    <t xml:space="preserve">All right.</t>
   </si>
   <si>
     <t xml:space="preserve"> So, so exciting.</t>
   </si>
   <si>
-    <t>Today we're going to be playing a matching game.</t>
+    <t xml:space="preserve">Today we're going to be playing a matching game.</t>
   </si>
   <si>
     <t xml:space="preserve"> Oh, let's not touch your iPad right now.</t>
   </si>
   <si>
-    <t>I can use here before.</t>
+    <t xml:space="preserve">I can use here before.</t>
   </si>
   <si>
     <t xml:space="preserve"> So, today we're going to be playing a matching game.</t>
@@ -67,16 +76,16 @@
     <t xml:space="preserve"> game, but before that, we're going to get practice touching our iPad to playing a fun game with popping bubbles.</t>
   </si>
   <si>
-    <t>So you're going to press the blue button.</t>
-  </si>
-  <si>
-    <t>You can press the button.</t>
+    <t xml:space="preserve">So you're going to press the blue button.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can press the button.</t>
   </si>
   <si>
     <t xml:space="preserve"> And we press, and we pop the bubbles?</t>
   </si>
   <si>
-    <t>id112</t>
+    <t xml:space="preserve">id112</t>
   </si>
   <si>
     <t xml:space="preserve"> Yes, you pop all the bubbles to get practice touching the iPad.</t>
@@ -85,7 +94,7 @@
     <t xml:space="preserve"> So you can press the blue buttons, though.</t>
   </si>
   <si>
-    <t>Why does X?</t>
+    <t xml:space="preserve">Why does X?</t>
   </si>
   <si>
     <t xml:space="preserve"> Oh, when you pop the bubbles and X shows up.</t>
@@ -94,94 +103,94 @@
     <t xml:space="preserve"> Oh, cool.</t>
   </si>
   <si>
-    <t>You can press the blue buttons now.</t>
+    <t xml:space="preserve">You can press the blue buttons now.</t>
   </si>
   <si>
     <t xml:space="preserve"> It's the blue buttons, no?</t>
   </si>
   <si>
-    <t>You have to try.</t>
-  </si>
-  <si>
-    <t>Cool.</t>
-  </si>
-  <si>
-    <t>Just keep on trying.</t>
-  </si>
-  <si>
-    <t>They're a little sensitive.</t>
-  </si>
-  <si>
-    <t>I love this game.</t>
-  </si>
-  <si>
-    <t>Ah.</t>
-  </si>
-  <si>
-    <t>Nice.</t>
-  </si>
-  <si>
-    <t>You can keep trying.</t>
-  </si>
-  <si>
-    <t>Does that this guy?</t>
+    <t xml:space="preserve">You have to try.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cool.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just keep on trying.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">They're a little sensitive.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I love this game.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can keep trying.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does that this guy?</t>
   </si>
   <si>
     <t xml:space="preserve"> Yeah, it's the same person.</t>
   </si>
   <si>
-    <t>We're going to get to that.</t>
-  </si>
-  <si>
-    <t>Oh.</t>
-  </si>
-  <si>
-    <t>Poppet.</t>
-  </si>
-  <si>
-    <t>Let's see.</t>
-  </si>
-  <si>
-    <t>What?</t>
-  </si>
-  <si>
-    <t>Just maybe try pressing harder.</t>
-  </si>
-  <si>
-    <t>Try pressing more to the left.</t>
-  </si>
-  <si>
-    <t>I might want to play again.</t>
-  </si>
-  <si>
-    <t>It's okay.</t>
-  </si>
-  <si>
-    <t>We have to wait for [id113] and finish popping her bubbles.</t>
+    <t xml:space="preserve">We're going to get to that.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poppet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let's see.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just maybe try pressing harder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Try pressing more to the left.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I might want to play again.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's okay.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We have to wait for [id113] and finish popping her bubbles.</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, come on, let's just keep trying.</t>
   </si>
   <si>
-    <t>[id113], I'm sorry.</t>
-  </si>
-  <si>
-    <t>Maybe try pressing it harder or for a longer time.</t>
-  </si>
-  <si>
-    <t>Why was I'm so fast?</t>
-  </si>
-  <si>
-    <t>because I'm so fast.</t>
-  </si>
-  <si>
-    <t>Hmm.</t>
-  </si>
-  <si>
-    <t>Do you want to just try pressing one more time?</t>
-  </si>
-  <si>
-    <t>Okay.</t>
+    <t xml:space="preserve">[id113], I'm sorry.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maybe try pressing it harder or for a longer time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why was I'm so fast?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">because I'm so fast.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hmm.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you want to just try pressing one more time?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okay.</t>
   </si>
   <si>
     <t xml:space="preserve"> So, is it popping the bubbles?</t>
@@ -190,28 +199,28 @@
     <t xml:space="preserve"> Yeah, it's not working right now.</t>
   </si>
   <si>
-    <t>So I'm gonna try just one.</t>
-  </si>
-  <si>
-    <t>Let me just repeat.</t>
-  </si>
-  <si>
-    <t>So his name is there's Smurphy?</t>
+    <t xml:space="preserve">So I'm gonna try just one.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let me just repeat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So his name is there's Smurphy?</t>
   </si>
   <si>
     <t xml:space="preserve"> Yeah, I'm going to get to that really quick but I just have to fix this iPad.</t>
   </si>
   <si>
-    <t>One.</t>
-  </si>
-  <si>
-    <t>The game room is really cool.</t>
+    <t xml:space="preserve">One.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The game room is really cool.</t>
   </si>
   <si>
     <t xml:space="preserve"> Yeah, okay.</t>
   </si>
   <si>
-    <t>Try pressing it one more time still.</t>
+    <t xml:space="preserve">Try pressing it one more time still.</t>
   </si>
   <si>
     <t xml:space="preserve"> Well, why does mine work?</t>
@@ -220,10 +229,10 @@
     <t xml:space="preserve"> Yeah, I'm not sure. Let's...</t>
   </si>
   <si>
-    <t>Let's...</t>
-  </si>
-  <si>
-    <t>Why line work and she does?</t>
+    <t xml:space="preserve">Let's...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why line work and she does?</t>
   </si>
   <si>
     <t xml:space="preserve"> But, will we press that at the button again?</t>
@@ -232,10 +241,10 @@
     <t xml:space="preserve"> Um, you will, but let's just take some time and try again.</t>
   </si>
   <si>
-    <t>So you're a gaming teacher?</t>
-  </si>
-  <si>
-    <t>I am a game room teacher.</t>
+    <t xml:space="preserve">So you're a gaming teacher?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am a game room teacher.</t>
   </si>
   <si>
     <t xml:space="preserve"> Oh, it works!</t>
@@ -244,7 +253,7 @@
     <t xml:space="preserve"> What, is it okay?</t>
   </si>
   <si>
-    <t>We're trying one more time.</t>
+    <t xml:space="preserve">We're trying one more time.</t>
   </si>
   <si>
     <t xml:space="preserve"> Yay! Okay, now you can pop the bubbles.</t>
@@ -253,43 +262,43 @@
     <t xml:space="preserve"> Pop-pop, pop.</t>
   </si>
   <si>
-    <t>Thank you for being so patient [id113]</t>
-  </si>
-  <si>
-    <t>You can press those bubbles too</t>
-  </si>
-  <si>
-    <t>We're just getting practiced touching the screens.</t>
-  </si>
-  <si>
-    <t>So we're doing.</t>
-  </si>
-  <si>
-    <t>Great job.</t>
-  </si>
-  <si>
-    <t>So now you guys both know how to touch the screens.</t>
-  </si>
-  <si>
-    <t>So now I can actually explain the matching game.</t>
-  </si>
-  <si>
-    <t>So I'll keep these here just so we're not distracted.</t>
+    <t xml:space="preserve">Thank you for being so patient [id113]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can press those bubbles too</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We're just getting practiced touching the screens.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So we're doing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great job.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So now you guys both know how to touch the screens.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So now I can actually explain the matching game.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So I'll keep these here just so we're not distracted.</t>
   </si>
   <si>
     <t xml:space="preserve"> So in the game, Smurphy has to guess a picture.</t>
   </si>
   <si>
-    <t>This is Smurphy. Do you want to say hi?</t>
-  </si>
-  <si>
-    <t>Hi Smurphy.</t>
-  </si>
-  <si>
-    <t>id113</t>
-  </si>
-  <si>
-    <t>Great.</t>
+    <t xml:space="preserve">This is Smurphy. Do you want to say hi?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hi Smurphy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great.</t>
   </si>
   <si>
     <t xml:space="preserve"> Smurphy says hi back. Now, on your screens, you're each going to see two pictures, but for one of you, you'll have one of the pictures in a black box. If your picture is in a black box, that means you're the teller, and it's your job to tell Smurphy which picture is in the black box.</t>
@@ -298,13 +307,13 @@
     <t xml:space="preserve"> Now, if you don't have a black box, that means you're holding Smurphy and you're the guesser.</t>
   </si>
   <si>
-    <t>It's your job to help Smurphy guess which picture was inside the black box.</t>
+    <t xml:space="preserve">It's your job to help Smurphy guess which picture was inside the black box.</t>
   </si>
   <si>
     <t xml:space="preserve"> So, when you think you know which picture is being told to you,</t>
   </si>
   <si>
-    <t>you're going to tap it on your screen to guess for Smurphy.</t>
+    <t xml:space="preserve">you're going to tap it on your screen to guess for Smurphy.</t>
   </si>
   <si>
     <t xml:space="preserve"> Now, if you guess the picture correctly, you'll get a smiley face, which means you got it right.</t>
@@ -313,13 +322,13 @@
     <t xml:space="preserve"> But if you get a picture incorrectly, you'll get a frowny face.</t>
   </si>
   <si>
-    <t>But that's okay because you have a lot of times to guess for Smurphy.</t>
+    <t xml:space="preserve">But that's okay because you have a lot of times to guess for Smurphy.</t>
   </si>
   <si>
     <t xml:space="preserve"> Now, you'll have many times to switch between being the teller and the guesser,</t>
   </si>
   <si>
-    <t>so I'll switch Smurphy off every time.</t>
+    <t xml:space="preserve">so I'll switch Smurphy off every time.</t>
   </si>
   <si>
     <t xml:space="preserve"> When you're ready to begin, you can press the blue button.</t>
@@ -328,16 +337,16 @@
     <t xml:space="preserve"> But for one final reminder, if you have the black box, what are you?</t>
   </si>
   <si>
-    <t>The guesser.</t>
+    <t xml:space="preserve">The guesser.</t>
   </si>
   <si>
     <t xml:space="preserve"> No, if you have the black box, you're the teller.</t>
   </si>
   <si>
-    <t>So it's you're up to tell the other person to help Smurphy guess.</t>
-  </si>
-  <si>
-    <t>Exactly.</t>
+    <t xml:space="preserve">So it's you're up to tell the other person to help Smurphy guess.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exactly.</t>
   </si>
   <si>
     <t xml:space="preserve"> And then if you don't have a picture, you're holding Smurphy, what are you?</t>
@@ -355,171 +364,201 @@
     <t xml:space="preserve"> Okay, so who was the black box?</t>
   </si>
   <si>
-    <t>Me!</t>
-  </si>
-  <si>
-    <t>S</t>
+    <t xml:space="preserve">Me!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S</t>
   </si>
   <si>
     <t xml:space="preserve"> So [id112], do you want to tell [id113] what you see inside of the black box?</t>
   </si>
   <si>
-    <t>A banana!</t>
-  </si>
-  <si>
-    <t>A banana</t>
-  </si>
-  <si>
-    <t>Great!</t>
+    <t xml:space="preserve">A banana!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A banana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great!</t>
   </si>
   <si>
     <t xml:space="preserve"> Now [id113], do you want to tap that on your screen?</t>
   </si>
   <si>
-    <t>Great job! You got the smiley face.</t>
-  </si>
-  <si>
-    <t>Now we can switch Smurphy off. Now you have the black box.</t>
-  </si>
-  <si>
-    <t>So do you want to tell [id112] what you see inside the black box now?</t>
-  </si>
-  <si>
-    <t>A bird.</t>
-  </si>
-  <si>
-    <t>A bird</t>
-  </si>
-  <si>
-    <t>Great job!</t>
-  </si>
-  <si>
-    <t>Do you want to tell us what you see in the black box?</t>
-  </si>
-  <si>
-    <t>A house.</t>
-  </si>
-  <si>
-    <t>A house</t>
-  </si>
-  <si>
-    <t>A tree</t>
+    <t xml:space="preserve">Great job! You got the smiley face.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now we can switch Smurphy off. Now you have the black box.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So do you want to tell [id112] what you see inside the black box now?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A bird.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A bird</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great job!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you want to tell us what you see in the black box?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A house.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A house</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A tree</t>
   </si>
   <si>
     <t xml:space="preserve"> Um, a person, a person jumping?</t>
   </si>
   <si>
-    <t>A person jumping</t>
+    <t xml:space="preserve">A person jumping</t>
   </si>
   <si>
     <t xml:space="preserve"> A person lying down</t>
   </si>
   <si>
-    <t>A person lying down</t>
-  </si>
-  <si>
-    <t>Is it this one?</t>
-  </si>
-  <si>
-    <t>L</t>
+    <t xml:space="preserve">A person lying down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is it this one?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L</t>
   </si>
   <si>
     <t xml:space="preserve"> I can't help you, but if you have your best guess...</t>
   </si>
   <si>
-    <t>Yay!</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>A person walking.</t>
-  </si>
-  <si>
-    <t>A person walking</t>
-  </si>
-  <si>
-    <t>A person... holding something.</t>
-  </si>
-  <si>
-    <t>A person holding something</t>
+    <t xml:space="preserve">Yay!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A person walking.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A person walking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A person... holding something.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A person holding something</t>
   </si>
   <si>
     <t xml:space="preserve"> Wow, Smurphys so happy</t>
   </si>
   <si>
-    <t>Um a person jumping.</t>
-  </si>
-  <si>
-    <t>A person holding something.</t>
-  </si>
-  <si>
-    <t>Looks like he's really happy.</t>
-  </si>
-  <si>
-    <t>I like his voice.</t>
+    <t xml:space="preserve">Um a person jumping.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A person holding something.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Looks like he's really happy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I like his voice.</t>
   </si>
   <si>
     <t xml:space="preserve">A person walking </t>
   </si>
   <si>
-    <t>A person lying.</t>
-  </si>
-  <si>
-    <t>A person jumping.</t>
-  </si>
-  <si>
-    <t>Wow.</t>
-  </si>
-  <si>
-    <t>Yay</t>
+    <t xml:space="preserve">A person lying.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A person jumping.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wow.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a person walking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yay</t>
   </si>
   <si>
     <t xml:space="preserve">A person holding something </t>
   </si>
   <si>
-    <t>A person what?</t>
-  </si>
-  <si>
-    <t>Holding something</t>
-  </si>
-  <si>
-    <t>Of course I...</t>
-  </si>
-  <si>
-    <t>Oh it's... a person's what?</t>
-  </si>
-  <si>
-    <t>A person's lying!</t>
-  </si>
-  <si>
-    <t>A person is walking</t>
-  </si>
-  <si>
-    <t>Wow. Great job. You finished the game. You guys helped Smurphy guess so well. Thank you guys so much for playing my game. Smurphy says thank you too. Wow.</t>
+    <t xml:space="preserve">A person what?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holding something</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Of course I...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oh it's... a person's what?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A person's lying!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a person’s lying</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A person is walking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a person is walking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wow. Great job. You finished the game. You guys helped Smurphy guess so well. Thank you guys so much for playing my game. Smurphy says thank you too. Wow.</t>
   </si>
   <si>
     <t xml:space="preserve"> You're welcome, Smurphy.</t>
   </si>
   <si>
-    <t>Wow. Okay. So now I'm going to stop the recording.</t>
+    <t xml:space="preserve">Wow. Okay. So now I'm going to stop the recording.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="5">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -527,32 +566,66 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -563,94 +636,90 @@
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="4285f4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="ea4335"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="fbbc04"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="34a853"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="ff6d01"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="46bdc6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="1155cc"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="1155cc"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
                 <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
                 <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
                 <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
                 <a:lumMod val="102000"/>
                 <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
                 <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
               </a:schemeClr>
@@ -658,33 +727,24 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
                 <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
@@ -697,13 +757,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -713,15 +767,13 @@
         <a:solidFill>
           <a:schemeClr val="phClr">
             <a:tint val="95000"/>
-            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="93000"/>
-                <a:satMod val="150000"/>
                 <a:shade val="98000"/>
                 <a:lumMod val="102000"/>
               </a:schemeClr>
@@ -729,7 +781,6 @@
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:tint val="98000"/>
-                <a:satMod val="130000"/>
                 <a:shade val="90000"/>
                 <a:lumMod val="103000"/>
               </a:schemeClr>
@@ -737,11 +788,11 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="63000"/>
-                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -750,26 +801,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:H159"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="H157" activeCellId="0" sqref="H157"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="44.63"/>
-    <col customWidth="1" min="4" max="4" width="15.75"/>
-    <col customWidth="1" min="5" max="5" width="14.63"/>
-    <col customWidth="1" min="6" max="6" width="15.38"/>
-    <col customWidth="1" min="8" max="8" width="22.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="44.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22.63"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -795,12 +848,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1">
-        <v>880.0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>6120.0</v>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>880</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>6120</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
@@ -809,12 +862,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1">
-        <v>7240.0</v>
-      </c>
-      <c r="B3" s="1">
-        <v>12080.0</v>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>7240</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>12080</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -823,12 +876,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1">
-        <v>13040.0</v>
-      </c>
-      <c r="B4" s="1">
-        <v>13400.0</v>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>13040</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>13400</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
@@ -837,12 +890,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1">
-        <v>14320.0</v>
-      </c>
-      <c r="B5" s="1">
-        <v>17440.0</v>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>14320</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>17440</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -851,12 +904,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1">
-        <v>19400.0</v>
-      </c>
-      <c r="B6" s="1">
-        <v>22120.0</v>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>19400</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>22120</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
@@ -865,12 +918,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1">
-        <v>22240.0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>23840.0</v>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>22240</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>23840</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
@@ -879,12 +932,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1">
-        <v>23840.0</v>
-      </c>
-      <c r="B8" s="1">
-        <v>25800.0</v>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>23840</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>25800</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
@@ -893,12 +946,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1">
-        <v>26560.0</v>
-      </c>
-      <c r="B9" s="1">
-        <v>29980.0</v>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>26560</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>29980</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>16</v>
@@ -907,12 +960,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1">
-        <v>29980.0</v>
-      </c>
-      <c r="B10" s="1">
-        <v>35480.0</v>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>29980</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>35480</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>17</v>
@@ -921,12 +974,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1">
-        <v>35480.0</v>
-      </c>
-      <c r="B11" s="1">
-        <v>37980.0</v>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>35480</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>37980</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>18</v>
@@ -935,12 +988,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1">
-        <v>37980.0</v>
-      </c>
-      <c r="B12" s="1">
-        <v>40980.0</v>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>37980</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>40980</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>19</v>
@@ -949,12 +1002,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1">
-        <v>40980.0</v>
-      </c>
-      <c r="B13" s="1">
-        <v>44980.0</v>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>40980</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>44980</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>20</v>
@@ -963,12 +1016,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1">
-        <v>44980.0</v>
-      </c>
-      <c r="B14" s="1">
-        <v>48980.0</v>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>44980</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>48980</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>22</v>
@@ -977,12 +1030,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1">
-        <v>48980.0</v>
-      </c>
-      <c r="B15" s="1">
-        <v>50980.0</v>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>48980</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>50980</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>23</v>
@@ -991,12 +1044,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1">
-        <v>50980.0</v>
-      </c>
-      <c r="B16" s="1">
-        <v>54980.0</v>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>50980</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>54980</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>24</v>
@@ -1005,12 +1058,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1">
-        <v>54980.0</v>
-      </c>
-      <c r="B17" s="1">
-        <v>56980.0</v>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>54980</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>56980</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>25</v>
@@ -1019,12 +1072,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1">
-        <v>56980.0</v>
-      </c>
-      <c r="B18" s="1">
-        <v>57980.0</v>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>56980</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>57980</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>26</v>
@@ -1033,12 +1086,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1">
-        <v>57980.0</v>
-      </c>
-      <c r="B19" s="1">
-        <v>58980.0</v>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>57980</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>58980</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>27</v>
@@ -1047,12 +1100,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1">
-        <v>58980.0</v>
-      </c>
-      <c r="B20" s="1">
-        <v>60980.0</v>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>58980</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>60980</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>28</v>
@@ -1061,12 +1114,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1">
-        <v>60980.0</v>
-      </c>
-      <c r="B21" s="1">
-        <v>61980.0</v>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>60980</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>61980</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>29</v>
@@ -1075,12 +1128,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1">
-        <v>61980.0</v>
-      </c>
-      <c r="B22" s="1">
-        <v>62980.0</v>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>61980</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>62980</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>30</v>
@@ -1089,12 +1142,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1">
-        <v>62980.0</v>
-      </c>
-      <c r="B23" s="1">
-        <v>63980.0</v>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>62980</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>63980</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>31</v>
@@ -1103,12 +1156,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1">
-        <v>63980.0</v>
-      </c>
-      <c r="B24" s="1">
-        <v>65980.0</v>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>63980</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>65980</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>32</v>
@@ -1117,12 +1170,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1">
-        <v>67980.0</v>
-      </c>
-      <c r="B25" s="1">
-        <v>69980.0</v>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>67980</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>69980</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>33</v>
@@ -1131,12 +1184,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1">
-        <v>69980.0</v>
-      </c>
-      <c r="B26" s="1">
-        <v>71980.0</v>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>69980</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>71980</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>34</v>
@@ -1145,12 +1198,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1">
-        <v>71980.0</v>
-      </c>
-      <c r="B27" s="1">
-        <v>73980.0</v>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>71980</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>73980</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>35</v>
@@ -1159,12 +1212,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1">
-        <v>73980.0</v>
-      </c>
-      <c r="B28" s="1">
-        <v>76980.0</v>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <v>73980</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>76980</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>36</v>
@@ -1173,12 +1226,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1">
-        <v>76980.0</v>
-      </c>
-      <c r="B29" s="1">
-        <v>78980.0</v>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
+        <v>76980</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>78980</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>37</v>
@@ -1187,12 +1240,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1">
-        <v>78980.0</v>
-      </c>
-      <c r="B30" s="1">
-        <v>80980.0</v>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <v>78980</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>80980</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>38</v>
@@ -1201,12 +1254,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1">
-        <v>80980.0</v>
-      </c>
-      <c r="B31" s="1">
-        <v>81980.0</v>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
+        <v>80980</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>81980</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>39</v>
@@ -1215,12 +1268,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1">
-        <v>81980.0</v>
-      </c>
-      <c r="B32" s="1">
-        <v>82980.0</v>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
+        <v>81980</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>82980</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>40</v>
@@ -1229,12 +1282,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1">
-        <v>82980.0</v>
-      </c>
-      <c r="B33" s="1">
-        <v>83980.0</v>
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
+        <v>82980</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>83980</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>40</v>
@@ -1243,12 +1296,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1">
-        <v>83980.0</v>
-      </c>
-      <c r="B34" s="1">
-        <v>84980.0</v>
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
+        <v>83980</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>84980</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>41</v>
@@ -1257,12 +1310,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1">
-        <v>84980.0</v>
-      </c>
-      <c r="B35" s="1">
-        <v>87980.0</v>
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
+        <v>84980</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>87980</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>42</v>
@@ -1271,12 +1324,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1">
-        <v>87980.0</v>
-      </c>
-      <c r="B36" s="1">
-        <v>89980.0</v>
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
+        <v>87980</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>89980</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>43</v>
@@ -1285,12 +1338,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1">
-        <v>89980.0</v>
-      </c>
-      <c r="B37" s="1">
-        <v>94980.0</v>
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
+        <v>89980</v>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>94980</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>44</v>
@@ -1299,12 +1352,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1">
-        <v>94980.0</v>
-      </c>
-      <c r="B38" s="1">
-        <v>98980.0</v>
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
+        <v>94980</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>98980</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>45</v>
@@ -1313,12 +1366,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1">
-        <v>98980.0</v>
-      </c>
-      <c r="B39" s="1">
-        <v>102980.0</v>
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
+        <v>98980</v>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>102980</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>46</v>
@@ -1327,12 +1380,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1">
-        <v>102980.0</v>
-      </c>
-      <c r="B40" s="1">
-        <v>104980.0</v>
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
+        <v>102980</v>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>104980</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>47</v>
@@ -1341,12 +1394,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1">
-        <v>104980.0</v>
-      </c>
-      <c r="B41" s="1">
-        <v>107980.0</v>
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
+        <v>104980</v>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>107980</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>48</v>
@@ -1355,12 +1408,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1">
-        <v>107980.0</v>
-      </c>
-      <c r="B42" s="1">
-        <v>109980.0</v>
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
+        <v>107980</v>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>109980</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>49</v>
@@ -1369,12 +1422,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1">
-        <v>109980.0</v>
-      </c>
-      <c r="B43" s="1">
-        <v>110980.0</v>
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="n">
+        <v>109980</v>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>110980</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>50</v>
@@ -1383,12 +1436,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1">
-        <v>110980.0</v>
-      </c>
-      <c r="B44" s="1">
-        <v>113980.0</v>
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="n">
+        <v>110980</v>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>113980</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>51</v>
@@ -1397,12 +1450,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1">
-        <v>113980.0</v>
-      </c>
-      <c r="B45" s="1">
-        <v>116980.0</v>
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="n">
+        <v>113980</v>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>116980</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>52</v>
@@ -1411,12 +1464,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1">
-        <v>116980.0</v>
-      </c>
-      <c r="B46" s="1">
-        <v>118980.0</v>
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="n">
+        <v>116980</v>
+      </c>
+      <c r="B46" s="1" t="n">
+        <v>118980</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>53</v>
@@ -1425,12 +1478,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1">
-        <v>118980.0</v>
-      </c>
-      <c r="B47" s="1">
-        <v>120980.0</v>
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="n">
+        <v>118980</v>
+      </c>
+      <c r="B47" s="1" t="n">
+        <v>120980</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>54</v>
@@ -1439,12 +1492,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1">
-        <v>120980.0</v>
-      </c>
-      <c r="B48" s="1">
-        <v>121980.0</v>
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="n">
+        <v>120980</v>
+      </c>
+      <c r="B48" s="1" t="n">
+        <v>121980</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>42</v>
@@ -1453,12 +1506,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1">
-        <v>121980.0</v>
-      </c>
-      <c r="B49" s="1">
-        <v>124980.0</v>
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="n">
+        <v>121980</v>
+      </c>
+      <c r="B49" s="1" t="n">
+        <v>124980</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>55</v>
@@ -1467,12 +1520,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1">
-        <v>124980.0</v>
-      </c>
-      <c r="B50" s="1">
-        <v>126980.0</v>
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="n">
+        <v>124980</v>
+      </c>
+      <c r="B50" s="1" t="n">
+        <v>126980</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>56</v>
@@ -1481,12 +1534,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1">
-        <v>126980.0</v>
-      </c>
-      <c r="B51" s="1">
-        <v>127980.0</v>
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="n">
+        <v>126980</v>
+      </c>
+      <c r="B51" s="1" t="n">
+        <v>127980</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>56</v>
@@ -1495,12 +1548,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1">
-        <v>131980.0</v>
-      </c>
-      <c r="B52" s="1">
-        <v>137980.0</v>
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="n">
+        <v>131980</v>
+      </c>
+      <c r="B52" s="1" t="n">
+        <v>137980</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>57</v>
@@ -1509,12 +1562,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1">
-        <v>137980.0</v>
-      </c>
-      <c r="B53" s="1">
-        <v>140980.0</v>
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="n">
+        <v>137980</v>
+      </c>
+      <c r="B53" s="1" t="n">
+        <v>140980</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>58</v>
@@ -1523,12 +1576,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1">
-        <v>140980.0</v>
-      </c>
-      <c r="B54" s="1">
-        <v>143980.0</v>
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="n">
+        <v>140980</v>
+      </c>
+      <c r="B54" s="1" t="n">
+        <v>143980</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>59</v>
@@ -1537,12 +1590,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1">
-        <v>143980.0</v>
-      </c>
-      <c r="B55" s="1">
-        <v>145980.0</v>
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="n">
+        <v>143980</v>
+      </c>
+      <c r="B55" s="1" t="n">
+        <v>145980</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>60</v>
@@ -1551,12 +1604,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1">
-        <v>145980.0</v>
-      </c>
-      <c r="B56" s="1">
-        <v>151980.0</v>
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="n">
+        <v>145980</v>
+      </c>
+      <c r="B56" s="1" t="n">
+        <v>151980</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>61</v>
@@ -1565,12 +1618,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1">
-        <v>151980.0</v>
-      </c>
-      <c r="B57" s="1">
-        <v>156980.0</v>
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="n">
+        <v>151980</v>
+      </c>
+      <c r="B57" s="1" t="n">
+        <v>156980</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>62</v>
@@ -1579,12 +1632,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1">
-        <v>156980.0</v>
-      </c>
-      <c r="B58" s="1">
-        <v>157980.0</v>
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="n">
+        <v>156980</v>
+      </c>
+      <c r="B58" s="1" t="n">
+        <v>157980</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>56</v>
@@ -1593,12 +1646,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1">
-        <v>157980.0</v>
-      </c>
-      <c r="B59" s="1">
-        <v>158980.0</v>
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="n">
+        <v>157980</v>
+      </c>
+      <c r="B59" s="1" t="n">
+        <v>158980</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>63</v>
@@ -1607,12 +1660,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1">
-        <v>158980.0</v>
-      </c>
-      <c r="B60" s="1">
-        <v>168980.0</v>
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="n">
+        <v>158980</v>
+      </c>
+      <c r="B60" s="1" t="n">
+        <v>168980</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>64</v>
@@ -1621,12 +1674,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1">
-        <v>168980.0</v>
-      </c>
-      <c r="B61" s="1">
-        <v>169980.0</v>
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="n">
+        <v>168980</v>
+      </c>
+      <c r="B61" s="1" t="n">
+        <v>169980</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>65</v>
@@ -1635,12 +1688,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1">
-        <v>169980.0</v>
-      </c>
-      <c r="B62" s="1">
-        <v>171980.0</v>
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="n">
+        <v>169980</v>
+      </c>
+      <c r="B62" s="1" t="n">
+        <v>171980</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>66</v>
@@ -1649,12 +1702,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1">
-        <v>171980.0</v>
-      </c>
-      <c r="B63" s="1">
-        <v>178980.0</v>
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="n">
+        <v>171980</v>
+      </c>
+      <c r="B63" s="1" t="n">
+        <v>178980</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>67</v>
@@ -1663,12 +1716,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1">
-        <v>178980.0</v>
-      </c>
-      <c r="B64" s="1">
-        <v>183980.0</v>
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="n">
+        <v>178980</v>
+      </c>
+      <c r="B64" s="1" t="n">
+        <v>183980</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>68</v>
@@ -1677,12 +1730,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1">
-        <v>183980.0</v>
-      </c>
-      <c r="B65" s="1">
-        <v>184980.0</v>
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="n">
+        <v>183980</v>
+      </c>
+      <c r="B65" s="1" t="n">
+        <v>184980</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>69</v>
@@ -1691,12 +1744,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="1">
-        <v>184980.0</v>
-      </c>
-      <c r="B66" s="1">
-        <v>188980.0</v>
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="n">
+        <v>184980</v>
+      </c>
+      <c r="B66" s="1" t="n">
+        <v>188980</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>70</v>
@@ -1705,12 +1758,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="1">
-        <v>188980.0</v>
-      </c>
-      <c r="B67" s="1">
-        <v>192980.0</v>
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="n">
+        <v>188980</v>
+      </c>
+      <c r="B67" s="1" t="n">
+        <v>192980</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>71</v>
@@ -1719,12 +1772,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="1">
-        <v>192980.0</v>
-      </c>
-      <c r="B68" s="1">
-        <v>198980.0</v>
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="n">
+        <v>192980</v>
+      </c>
+      <c r="B68" s="1" t="n">
+        <v>198980</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>72</v>
@@ -1733,12 +1786,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="1">
-        <v>198980.0</v>
-      </c>
-      <c r="B69" s="1">
-        <v>205980.0</v>
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="n">
+        <v>198980</v>
+      </c>
+      <c r="B69" s="1" t="n">
+        <v>205980</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>73</v>
@@ -1747,12 +1800,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1">
-        <v>205980.0</v>
-      </c>
-      <c r="B70" s="1">
-        <v>206980.0</v>
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="n">
+        <v>205980</v>
+      </c>
+      <c r="B70" s="1" t="n">
+        <v>206980</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>74</v>
@@ -1761,12 +1814,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1">
-        <v>206980.0</v>
-      </c>
-      <c r="B71" s="1">
-        <v>208980.0</v>
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="n">
+        <v>206980</v>
+      </c>
+      <c r="B71" s="1" t="n">
+        <v>208980</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>75</v>
@@ -1775,12 +1828,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1">
-        <v>208980.0</v>
-      </c>
-      <c r="B72" s="1">
-        <v>211980.0</v>
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="n">
+        <v>208980</v>
+      </c>
+      <c r="B72" s="1" t="n">
+        <v>211980</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>76</v>
@@ -1789,12 +1842,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="1">
-        <v>211980.0</v>
-      </c>
-      <c r="B73" s="1">
-        <v>214980.0</v>
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="n">
+        <v>211980</v>
+      </c>
+      <c r="B73" s="1" t="n">
+        <v>214980</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>77</v>
@@ -1803,12 +1856,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1">
-        <v>214980.0</v>
-      </c>
-      <c r="B74" s="1">
-        <v>215980.0</v>
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="n">
+        <v>214980</v>
+      </c>
+      <c r="B74" s="1" t="n">
+        <v>215980</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>56</v>
@@ -1817,12 +1870,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="1">
-        <v>215980.0</v>
-      </c>
-      <c r="B75" s="1">
-        <v>221980.0</v>
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="n">
+        <v>215980</v>
+      </c>
+      <c r="B75" s="1" t="n">
+        <v>221980</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>78</v>
@@ -1831,12 +1884,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="1">
-        <v>221980.0</v>
-      </c>
-      <c r="B76" s="1">
-        <v>225980.0</v>
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="n">
+        <v>221980</v>
+      </c>
+      <c r="B76" s="1" t="n">
+        <v>225980</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>79</v>
@@ -1845,12 +1898,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="1">
-        <v>225980.0</v>
-      </c>
-      <c r="B77" s="1">
-        <v>227980.0</v>
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="n">
+        <v>225980</v>
+      </c>
+      <c r="B77" s="1" t="n">
+        <v>227980</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>80</v>
@@ -1859,12 +1912,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="1">
-        <v>227980.0</v>
-      </c>
-      <c r="B78" s="1">
-        <v>232980.0</v>
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="n">
+        <v>227980</v>
+      </c>
+      <c r="B78" s="1" t="n">
+        <v>232980</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>81</v>
@@ -1873,12 +1926,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="1">
-        <v>232980.0</v>
-      </c>
-      <c r="B79" s="1">
-        <v>235980.0</v>
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="n">
+        <v>232980</v>
+      </c>
+      <c r="B79" s="1" t="n">
+        <v>235980</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>82</v>
@@ -1887,12 +1940,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="1">
-        <v>235980.0</v>
-      </c>
-      <c r="B80" s="1">
-        <v>237980.0</v>
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="n">
+        <v>235980</v>
+      </c>
+      <c r="B80" s="1" t="n">
+        <v>237980</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>83</v>
@@ -1901,12 +1954,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="1">
-        <v>237980.0</v>
-      </c>
-      <c r="B81" s="1">
-        <v>238980.0</v>
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="n">
+        <v>237980</v>
+      </c>
+      <c r="B81" s="1" t="n">
+        <v>238980</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>84</v>
@@ -1915,12 +1968,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="1">
-        <v>238980.0</v>
-      </c>
-      <c r="B82" s="1">
-        <v>241980.0</v>
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="n">
+        <v>238980</v>
+      </c>
+      <c r="B82" s="1" t="n">
+        <v>241980</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>85</v>
@@ -1929,12 +1982,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="1">
-        <v>241980.0</v>
-      </c>
-      <c r="B83" s="1">
-        <v>243980.0</v>
+    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="n">
+        <v>241980</v>
+      </c>
+      <c r="B83" s="1" t="n">
+        <v>243980</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>86</v>
@@ -1943,12 +1996,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="1">
-        <v>243980.0</v>
-      </c>
-      <c r="B84" s="1">
-        <v>247980.0</v>
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="n">
+        <v>243980</v>
+      </c>
+      <c r="B84" s="1" t="n">
+        <v>247980</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>87</v>
@@ -1957,12 +2010,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="1">
-        <v>247980.0</v>
-      </c>
-      <c r="B85" s="1">
-        <v>251980.0</v>
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="n">
+        <v>247980</v>
+      </c>
+      <c r="B85" s="1" t="n">
+        <v>251980</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>88</v>
@@ -1971,12 +2024,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1">
-        <v>251980.0</v>
-      </c>
-      <c r="B86" s="1">
-        <v>253980.0</v>
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="n">
+        <v>251980</v>
+      </c>
+      <c r="B86" s="1" t="n">
+        <v>253980</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>89</v>
@@ -1985,12 +2038,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1">
-        <v>253980.0</v>
-      </c>
-      <c r="B87" s="1">
-        <v>255980.0</v>
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="n">
+        <v>253980</v>
+      </c>
+      <c r="B87" s="1" t="n">
+        <v>255980</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>90</v>
@@ -1999,12 +2052,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="1">
-        <v>255980.0</v>
-      </c>
-      <c r="B88" s="1">
-        <v>256980.0</v>
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="n">
+        <v>255980</v>
+      </c>
+      <c r="B88" s="1" t="n">
+        <v>256980</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>90</v>
@@ -2013,12 +2066,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="1">
-        <v>256980.0</v>
-      </c>
-      <c r="B89" s="1">
-        <v>257980.0</v>
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="n">
+        <v>256980</v>
+      </c>
+      <c r="B89" s="1" t="n">
+        <v>257980</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>92</v>
@@ -2027,12 +2080,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1">
-        <v>257980.0</v>
-      </c>
-      <c r="B90" s="1">
-        <v>275100.0</v>
+    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="n">
+        <v>257980</v>
+      </c>
+      <c r="B90" s="1" t="n">
+        <v>275100</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>93</v>
@@ -2041,12 +2094,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1">
-        <v>275100.0</v>
-      </c>
-      <c r="B91" s="1">
-        <v>287180.0</v>
+    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="n">
+        <v>275100</v>
+      </c>
+      <c r="B91" s="1" t="n">
+        <v>287180</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>94</v>
@@ -2055,12 +2108,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1">
-        <v>287640.0</v>
-      </c>
-      <c r="B92" s="1">
-        <v>291520.0</v>
+    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="n">
+        <v>287640</v>
+      </c>
+      <c r="B92" s="1" t="n">
+        <v>291520</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>95</v>
@@ -2069,12 +2122,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="1">
-        <v>292000.0</v>
-      </c>
-      <c r="B93" s="1">
-        <v>295380.0</v>
+    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="n">
+        <v>292000</v>
+      </c>
+      <c r="B93" s="1" t="n">
+        <v>295380</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>96</v>
@@ -2083,12 +2136,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="1">
-        <v>295640.0</v>
-      </c>
-      <c r="B94" s="1">
-        <v>298940.0</v>
+    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="n">
+        <v>295640</v>
+      </c>
+      <c r="B94" s="1" t="n">
+        <v>298940</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>97</v>
@@ -2097,12 +2150,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="1">
-        <v>300180.0</v>
-      </c>
-      <c r="B95" s="1">
-        <v>305000.0</v>
+    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="n">
+        <v>300180</v>
+      </c>
+      <c r="B95" s="1" t="n">
+        <v>305000</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>98</v>
@@ -2111,12 +2164,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="1">
-        <v>305000.0</v>
-      </c>
-      <c r="B96" s="1">
-        <v>307960.0</v>
+    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="n">
+        <v>305000</v>
+      </c>
+      <c r="B96" s="1" t="n">
+        <v>307960</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>99</v>
@@ -2125,12 +2178,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="1">
-        <v>308320.0</v>
-      </c>
-      <c r="B97" s="1">
-        <v>312040.0</v>
+    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="n">
+        <v>308320</v>
+      </c>
+      <c r="B97" s="1" t="n">
+        <v>312040</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>100</v>
@@ -2139,12 +2192,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="1">
-        <v>313360.0</v>
-      </c>
-      <c r="B98" s="1">
-        <v>320720.0</v>
+    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="n">
+        <v>313360</v>
+      </c>
+      <c r="B98" s="1" t="n">
+        <v>320720</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>101</v>
@@ -2153,12 +2206,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="1">
-        <v>321000.0</v>
-      </c>
-      <c r="B99" s="1">
-        <v>323160.0</v>
+    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="n">
+        <v>321000</v>
+      </c>
+      <c r="B99" s="1" t="n">
+        <v>323160</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>102</v>
@@ -2167,12 +2220,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1">
-        <v>323620.0</v>
-      </c>
-      <c r="B100" s="1">
-        <v>326320.0</v>
+    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="n">
+        <v>323620</v>
+      </c>
+      <c r="B100" s="1" t="n">
+        <v>326320</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>103</v>
@@ -2181,12 +2234,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="1">
-        <v>326520.0</v>
-      </c>
-      <c r="B101" s="1">
-        <v>330240.0</v>
+    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="n">
+        <v>326520</v>
+      </c>
+      <c r="B101" s="1" t="n">
+        <v>330240</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>104</v>
@@ -2195,12 +2248,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1">
-        <v>331160.0</v>
-      </c>
-      <c r="B102" s="1">
-        <v>331960.0</v>
+    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="n">
+        <v>331160</v>
+      </c>
+      <c r="B102" s="1" t="n">
+        <v>331960</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>105</v>
@@ -2209,12 +2262,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="1">
-        <v>331960.0</v>
-      </c>
-      <c r="B103" s="1">
-        <v>336140.0</v>
+    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="n">
+        <v>331960</v>
+      </c>
+      <c r="B103" s="1" t="n">
+        <v>336140</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>106</v>
@@ -2223,12 +2276,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="1">
-        <v>336140.0</v>
-      </c>
-      <c r="B104" s="1">
-        <v>339720.0</v>
+    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="n">
+        <v>336140</v>
+      </c>
+      <c r="B104" s="1" t="n">
+        <v>339720</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>107</v>
@@ -2237,12 +2290,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="1">
-        <v>339720.0</v>
-      </c>
-      <c r="B105" s="1">
-        <v>340720.0</v>
+    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="n">
+        <v>339720</v>
+      </c>
+      <c r="B105" s="1" t="n">
+        <v>340720</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>108</v>
@@ -2251,12 +2304,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="1">
-        <v>340720.0</v>
-      </c>
-      <c r="B106" s="1">
-        <v>344720.0</v>
+    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="n">
+        <v>340720</v>
+      </c>
+      <c r="B106" s="1" t="n">
+        <v>344720</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>109</v>
@@ -2265,12 +2318,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="1">
-        <v>344720.0</v>
-      </c>
-      <c r="B107" s="1">
-        <v>345720.0</v>
+    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="n">
+        <v>344720</v>
+      </c>
+      <c r="B107" s="1" t="n">
+        <v>345720</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>105</v>
@@ -2279,12 +2332,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="1">
-        <v>345720.0</v>
-      </c>
-      <c r="B108" s="1">
-        <v>347460.0</v>
+    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="n">
+        <v>345720</v>
+      </c>
+      <c r="B108" s="1" t="n">
+        <v>347460</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>110</v>
@@ -2293,12 +2346,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="1">
-        <v>347460.0</v>
-      </c>
-      <c r="B109" s="1">
-        <v>351460.0</v>
+    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="n">
+        <v>347460</v>
+      </c>
+      <c r="B109" s="1" t="n">
+        <v>351460</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>111</v>
@@ -2307,12 +2360,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="1">
-        <v>351460.0</v>
-      </c>
-      <c r="B110" s="1">
-        <v>353460.0</v>
+    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="1" t="n">
+        <v>351460</v>
+      </c>
+      <c r="B110" s="1" t="n">
+        <v>353460</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>112</v>
@@ -2321,12 +2374,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="1">
-        <v>353460.0</v>
-      </c>
-      <c r="B111" s="1">
-        <v>355460.0</v>
+    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="n">
+        <v>353460</v>
+      </c>
+      <c r="B111" s="1" t="n">
+        <v>355460</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>113</v>
@@ -2334,16 +2387,16 @@
       <c r="D111" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E111" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1">
-        <v>355460.0</v>
-      </c>
-      <c r="B112" s="1">
-        <v>356460.0</v>
+      <c r="E111" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="1" t="n">
+        <v>355460</v>
+      </c>
+      <c r="B112" s="1" t="n">
+        <v>356460</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>114</v>
@@ -2356,12 +2409,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="1">
-        <v>356460.0</v>
-      </c>
-      <c r="B113" s="1">
-        <v>360460.0</v>
+    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="1" t="n">
+        <v>356460</v>
+      </c>
+      <c r="B113" s="1" t="n">
+        <v>360460</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>116</v>
@@ -2370,12 +2423,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="1">
-        <v>360460.0</v>
-      </c>
-      <c r="B114" s="1">
-        <v>361460.0</v>
+    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="1" t="n">
+        <v>360460</v>
+      </c>
+      <c r="B114" s="1" t="n">
+        <v>361460</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>117</v>
@@ -2391,12 +2444,12 @@
         <v>118</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="1">
-        <v>361460.0</v>
-      </c>
-      <c r="B115" s="1">
-        <v>363460.0</v>
+    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="1" t="n">
+        <v>361460</v>
+      </c>
+      <c r="B115" s="1" t="n">
+        <v>363460</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>119</v>
@@ -2405,12 +2458,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="1">
-        <v>363460.0</v>
-      </c>
-      <c r="B116" s="1">
-        <v>365460.0</v>
+    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="1" t="n">
+        <v>363460</v>
+      </c>
+      <c r="B116" s="1" t="n">
+        <v>365460</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>120</v>
@@ -2419,12 +2472,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="1">
-        <v>365460.0</v>
-      </c>
-      <c r="B117" s="1">
-        <v>369460.0</v>
+    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="1" t="n">
+        <v>365460</v>
+      </c>
+      <c r="B117" s="1" t="n">
+        <v>369460</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>121</v>
@@ -2432,16 +2485,16 @@
       <c r="D117" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E117" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1">
-        <v>369460.0</v>
-      </c>
-      <c r="B118" s="1">
-        <v>373460.0</v>
+      <c r="E117" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="1" t="n">
+        <v>369460</v>
+      </c>
+      <c r="B118" s="1" t="n">
+        <v>373460</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>122</v>
@@ -2450,12 +2503,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="1">
-        <v>373460.0</v>
-      </c>
-      <c r="B119" s="1">
-        <v>378460.0</v>
+    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="1" t="n">
+        <v>373460</v>
+      </c>
+      <c r="B119" s="1" t="n">
+        <v>378460</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>123</v>
@@ -2464,12 +2517,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="1">
-        <v>378460.0</v>
-      </c>
-      <c r="B120" s="1">
-        <v>379460.0</v>
+    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="1" t="n">
+        <v>378460</v>
+      </c>
+      <c r="B120" s="1" t="n">
+        <v>379460</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>124</v>
@@ -2481,12 +2534,12 @@
         <v>125</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="1">
-        <v>379460.0</v>
-      </c>
-      <c r="B121" s="1">
-        <v>382460.0</v>
+    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="1" t="n">
+        <v>379460</v>
+      </c>
+      <c r="B121" s="1" t="n">
+        <v>382460</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>126</v>
@@ -2495,12 +2548,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="1">
-        <v>382460.0</v>
-      </c>
-      <c r="B122" s="1">
-        <v>386460.0</v>
+    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="1" t="n">
+        <v>382460</v>
+      </c>
+      <c r="B122" s="1" t="n">
+        <v>386460</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>127</v>
@@ -2509,12 +2562,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="1">
-        <v>386460.0</v>
-      </c>
-      <c r="B123" s="1">
-        <v>389460.0</v>
+    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="1" t="n">
+        <v>386460</v>
+      </c>
+      <c r="B123" s="1" t="n">
+        <v>389460</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>128</v>
@@ -2530,12 +2583,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" s="1">
-        <v>386460.0</v>
-      </c>
-      <c r="B124" s="1">
-        <v>389460.0</v>
+    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="1" t="n">
+        <v>386460</v>
+      </c>
+      <c r="B124" s="1" t="n">
+        <v>389460</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>130</v>
@@ -2543,8 +2596,8 @@
       <c r="D124" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E124" s="1">
-        <v>3.0</v>
+      <c r="E124" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>115</v>
@@ -2553,12 +2606,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="1">
-        <v>389460.0</v>
-      </c>
-      <c r="B125" s="1">
-        <v>409460.0</v>
+    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="1" t="n">
+        <v>389460</v>
+      </c>
+      <c r="B125" s="1" t="n">
+        <v>409460</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>131</v>
@@ -2566,8 +2619,8 @@
       <c r="D125" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E125" s="1">
-        <v>4.0</v>
+      <c r="E125" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>115</v>
@@ -2576,12 +2629,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="1">
-        <v>415460.0</v>
-      </c>
-      <c r="B126" s="1">
-        <v>418460.0</v>
+    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="1" t="n">
+        <v>415460</v>
+      </c>
+      <c r="B126" s="1" t="n">
+        <v>418460</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>133</v>
@@ -2589,8 +2642,8 @@
       <c r="D126" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E126" s="1">
-        <v>5.0</v>
+      <c r="E126" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>115</v>
@@ -2599,12 +2652,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="1">
-        <v>418460.0</v>
-      </c>
-      <c r="B127" s="1">
-        <v>424460.0</v>
+    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="1" t="n">
+        <v>418460</v>
+      </c>
+      <c r="B127" s="1" t="n">
+        <v>424460</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>135</v>
@@ -2616,12 +2669,12 @@
         <v>136</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="1">
-        <v>424460.0</v>
-      </c>
-      <c r="B128" s="1">
-        <v>429460.0</v>
+    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="1" t="n">
+        <v>424460</v>
+      </c>
+      <c r="B128" s="1" t="n">
+        <v>429460</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>137</v>
@@ -2630,12 +2683,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="1">
-        <v>429460.0</v>
-      </c>
-      <c r="B129" s="1">
-        <v>430460.0</v>
+    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="1" t="n">
+        <v>429460</v>
+      </c>
+      <c r="B129" s="1" t="n">
+        <v>430460</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>138</v>
@@ -2645,12 +2698,12 @@
       </c>
       <c r="E129" s="1"/>
     </row>
-    <row r="130">
-      <c r="A130" s="1">
-        <v>430460.0</v>
-      </c>
-      <c r="B130" s="1">
-        <v>436460.0</v>
+    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="1" t="n">
+        <v>430460</v>
+      </c>
+      <c r="B130" s="1" t="n">
+        <v>436460</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>140</v>
@@ -2658,8 +2711,8 @@
       <c r="D130" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E130" s="1">
-        <v>6.0</v>
+      <c r="E130" s="1" t="n">
+        <v>6</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>115</v>
@@ -2668,12 +2721,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="1">
-        <v>436460.0</v>
-      </c>
-      <c r="B131" s="1">
-        <v>439460.0</v>
+    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="1" t="n">
+        <v>436460</v>
+      </c>
+      <c r="B131" s="1" t="n">
+        <v>439460</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>138</v>
@@ -2683,12 +2736,12 @@
       </c>
       <c r="E131" s="1"/>
     </row>
-    <row r="132">
-      <c r="A132" s="1">
-        <v>439460.0</v>
-      </c>
-      <c r="B132" s="1">
-        <v>451460.0</v>
+    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="1" t="n">
+        <v>439460</v>
+      </c>
+      <c r="B132" s="1" t="n">
+        <v>451460</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>142</v>
@@ -2696,8 +2749,8 @@
       <c r="D132" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E132" s="1">
-        <v>7.0</v>
+      <c r="E132" s="1" t="n">
+        <v>7</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>115</v>
@@ -2706,12 +2759,12 @@
         <v>143</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="1">
-        <v>451460.0</v>
-      </c>
-      <c r="B133" s="1">
-        <v>455460.0</v>
+    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="1" t="n">
+        <v>451460</v>
+      </c>
+      <c r="B133" s="1" t="n">
+        <v>455460</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>144</v>
@@ -2719,16 +2772,16 @@
       <c r="D133" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E133" s="1">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1">
-        <v>455460.0</v>
-      </c>
-      <c r="B134" s="1">
-        <v>461460.0</v>
+      <c r="E133" s="1" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="1" t="n">
+        <v>455460</v>
+      </c>
+      <c r="B134" s="1" t="n">
+        <v>461460</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>145</v>
@@ -2743,12 +2796,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="1">
-        <v>461460.0</v>
-      </c>
-      <c r="B135" s="1">
-        <v>462460.0</v>
+    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="1" t="n">
+        <v>461460</v>
+      </c>
+      <c r="B135" s="1" t="n">
+        <v>462460</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>138</v>
@@ -2756,16 +2809,16 @@
       <c r="D135" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E135" s="1">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1">
-        <v>462460.0</v>
-      </c>
-      <c r="B136" s="1">
-        <v>469460.0</v>
+      <c r="E135" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="1" t="n">
+        <v>462460</v>
+      </c>
+      <c r="B136" s="1" t="n">
+        <v>469460</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>146</v>
@@ -2780,12 +2833,12 @@
         <v>143</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="1">
-        <v>469460.0</v>
-      </c>
-      <c r="B137" s="1">
-        <v>474460.0</v>
+    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="1" t="n">
+        <v>469460</v>
+      </c>
+      <c r="B137" s="1" t="n">
+        <v>474460</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>147</v>
@@ -2793,16 +2846,16 @@
       <c r="D137" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E137" s="1">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1">
-        <v>474460.0</v>
-      </c>
-      <c r="B138" s="1">
-        <v>476460.0</v>
+      <c r="E137" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="1" t="n">
+        <v>474460</v>
+      </c>
+      <c r="B138" s="1" t="n">
+        <v>476460</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>148</v>
@@ -2811,12 +2864,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="1">
-        <v>476460.0</v>
-      </c>
-      <c r="B139" s="1">
-        <v>481460.0</v>
+    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="1" t="n">
+        <v>476460</v>
+      </c>
+      <c r="B139" s="1" t="n">
+        <v>481460</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>140</v>
@@ -2832,12 +2885,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="1">
-        <v>481460.0</v>
-      </c>
-      <c r="B140" s="1">
-        <v>485460.0</v>
+    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="1" t="n">
+        <v>481460</v>
+      </c>
+      <c r="B140" s="1" t="n">
+        <v>485460</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>150</v>
@@ -2845,8 +2898,8 @@
       <c r="D140" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E140" s="1">
-        <v>11.0</v>
+      <c r="E140" s="1" t="n">
+        <v>11</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>115</v>
@@ -2855,12 +2908,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="1">
-        <v>490460.0</v>
-      </c>
-      <c r="B141" s="1">
-        <v>500460.0</v>
+    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="1" t="n">
+        <v>490460</v>
+      </c>
+      <c r="B141" s="1" t="n">
+        <v>500460</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>151</v>
@@ -2868,8 +2921,8 @@
       <c r="D141" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E141" s="1">
-        <v>12.0</v>
+      <c r="E141" s="1" t="n">
+        <v>12</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>115</v>
@@ -2878,12 +2931,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="1">
-        <v>503460.0</v>
-      </c>
-      <c r="B142" s="1">
-        <v>508460.0</v>
+    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="1" t="n">
+        <v>503460</v>
+      </c>
+      <c r="B142" s="1" t="n">
+        <v>508460</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>150</v>
@@ -2891,8 +2944,8 @@
       <c r="D142" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E142" s="1">
-        <v>13.0</v>
+      <c r="E142" s="1" t="n">
+        <v>13</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>115</v>
@@ -2901,12 +2954,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="1">
-        <v>508460.0</v>
-      </c>
-      <c r="B143" s="1">
-        <v>511460.0</v>
+    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="1" t="n">
+        <v>508460</v>
+      </c>
+      <c r="B143" s="1" t="n">
+        <v>511460</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>138</v>
@@ -2915,12 +2968,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" s="1">
-        <v>511460.0</v>
-      </c>
-      <c r="B144" s="1">
-        <v>513460.0</v>
+    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="1" t="n">
+        <v>511460</v>
+      </c>
+      <c r="B144" s="1" t="n">
+        <v>513460</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>152</v>
@@ -2928,16 +2981,16 @@
       <c r="D144" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E144" s="1">
-        <v>14.0</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1">
-        <v>513460.0</v>
-      </c>
-      <c r="B145" s="1">
-        <v>517460.0</v>
+      <c r="E144" s="1" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="1" t="n">
+        <v>513460</v>
+      </c>
+      <c r="B145" s="1" t="n">
+        <v>517460</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>140</v>
@@ -2948,36 +3001,39 @@
       <c r="F145" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1">
-        <v>517460.0</v>
-      </c>
-      <c r="B146" s="1">
-        <v>519460.0</v>
+      <c r="H145" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="1" t="n">
+        <v>517460</v>
+      </c>
+      <c r="B146" s="1" t="n">
+        <v>519460</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" s="1">
-        <v>519460.0</v>
-      </c>
-      <c r="B147" s="1">
-        <v>521460.0</v>
+    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="1" t="n">
+        <v>519460</v>
+      </c>
+      <c r="B147" s="1" t="n">
+        <v>521460</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E147" s="1">
-        <v>15.0</v>
+      <c r="E147" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>115</v>
@@ -2986,12 +3042,12 @@
         <v>143</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" s="1">
-        <v>521460.0</v>
-      </c>
-      <c r="B148" s="1">
-        <v>524460.0</v>
+    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="1" t="n">
+        <v>521460</v>
+      </c>
+      <c r="B148" s="1" t="n">
+        <v>524460</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>151</v>
@@ -2999,8 +3055,8 @@
       <c r="D148" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E148" s="1">
-        <v>16.0</v>
+      <c r="E148" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>115</v>
@@ -3009,67 +3065,67 @@
         <v>132</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" s="1">
-        <v>521460.0</v>
-      </c>
-      <c r="B149" s="1">
-        <v>524460.0</v>
+    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="1" t="n">
+        <v>521460</v>
+      </c>
+      <c r="B149" s="1" t="n">
+        <v>524460</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E149" s="1">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1">
-        <v>521460.0</v>
-      </c>
-      <c r="B150" s="1">
-        <v>524460.0</v>
+      <c r="E149" s="1" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="1" t="n">
+        <v>521460</v>
+      </c>
+      <c r="B150" s="1" t="n">
+        <v>524460</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>91</v>
       </c>
       <c r="E150" s="1"/>
       <c r="H150" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1">
-        <v>524460.0</v>
-      </c>
-      <c r="B151" s="1">
-        <v>526460.0</v>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="1" t="n">
+        <v>524460</v>
+      </c>
+      <c r="B151" s="1" t="n">
+        <v>526460</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E151" s="1">
-        <v>18.0</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1">
-        <v>526460.0</v>
-      </c>
-      <c r="B152" s="1">
-        <v>529460.0</v>
+      <c r="E151" s="1" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="1" t="n">
+        <v>526460</v>
+      </c>
+      <c r="B152" s="1" t="n">
+        <v>529460</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>91</v>
@@ -3078,15 +3134,15 @@
         <v>136</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" s="1">
-        <v>529460.0</v>
-      </c>
-      <c r="B153" s="1">
-        <v>533460.0</v>
+    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="1" t="n">
+        <v>529460</v>
+      </c>
+      <c r="B153" s="1" t="n">
+        <v>533460</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>21</v>
@@ -3094,91 +3150,103 @@
       <c r="F153" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1">
-        <v>533460.0</v>
-      </c>
-      <c r="B154" s="1">
-        <v>535460.0</v>
+      <c r="H153" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="1" t="n">
+        <v>533460</v>
+      </c>
+      <c r="B154" s="1" t="n">
+        <v>535460</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E154" s="1">
-        <v>19.0</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1">
-        <v>535460.0</v>
-      </c>
-      <c r="B155" s="1">
-        <v>537460.0</v>
+        <v>154</v>
+      </c>
+      <c r="E154" s="1" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="1" t="n">
+        <v>535460</v>
+      </c>
+      <c r="B155" s="1" t="n">
+        <v>537460</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>152</v>
       </c>
       <c r="E155" s="1"/>
     </row>
-    <row r="156">
-      <c r="A156" s="1">
-        <v>537460.0</v>
-      </c>
-      <c r="B156" s="1">
-        <v>543460.0</v>
+    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="1" t="n">
+        <v>537460</v>
+      </c>
+      <c r="B156" s="1" t="n">
+        <v>543460</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>91</v>
       </c>
       <c r="E156" s="1"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1">
-        <v>543460.0</v>
-      </c>
-      <c r="B157" s="1">
-        <v>555460.0</v>
+      <c r="H156" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="1" t="n">
+        <v>543460</v>
+      </c>
+      <c r="B157" s="1" t="n">
+        <v>555460</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" s="1">
-        <v>555460.0</v>
-      </c>
-      <c r="B158" s="1">
-        <v>557460.0</v>
+    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="1" t="n">
+        <v>555460</v>
+      </c>
+      <c r="B158" s="1" t="n">
+        <v>557460</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" s="1">
-        <v>557460.0</v>
-      </c>
-      <c r="B159" s="1">
-        <v>563460.0</v>
+    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="1" t="n">
+        <v>557460</v>
+      </c>
+      <c r="B159" s="1" t="n">
+        <v>563460</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>